--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1380230.498864759</v>
+        <v>1377733.332687894</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673422</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>205.3072713607638</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
-        <v>43.98432467468407</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797721</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124552</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1591,7 +1591,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y13" t="n">
         <v>171.6095167335022</v>
@@ -1607,10 +1607,10 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>215.897121511088</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958321</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>249.0416155939021</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1695,7 +1695,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G15" t="n">
         <v>134.9994691657081</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F16" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124547</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145471</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
         <v>172.5738126575766</v>
@@ -1828,7 +1828,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y16" t="n">
         <v>171.6095167335022</v>
@@ -1850,7 +1850,7 @@
         <v>260.7327683834978</v>
       </c>
       <c r="E17" t="n">
-        <v>287.9800968350766</v>
+        <v>235.6978389622007</v>
       </c>
       <c r="F17" t="n">
         <v>312.9257725045263</v>
@@ -1859,7 +1859,7 @@
         <v>316.9714524162683</v>
       </c>
       <c r="H17" t="n">
-        <v>148.3752332772596</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>15.23748855099068</v>
+        <v>15.23748855099065</v>
       </c>
       <c r="T17" t="n">
         <v>109.967696902435</v>
@@ -1929,7 +1929,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.88170694475214</v>
+        <v>85.88170694475211</v>
       </c>
       <c r="C19" t="n">
-        <v>73.29654786144268</v>
+        <v>73.29654786144265</v>
       </c>
       <c r="D19" t="n">
-        <v>54.6651997810272</v>
+        <v>54.66519978102717</v>
       </c>
       <c r="E19" t="n">
-        <v>52.48368940938401</v>
+        <v>52.48368940938398</v>
       </c>
       <c r="F19" t="n">
-        <v>51.47077478574609</v>
+        <v>51.47077478574606</v>
       </c>
       <c r="G19" t="n">
-        <v>72.07553502184307</v>
+        <v>72.07553502184304</v>
       </c>
       <c r="H19" t="n">
-        <v>50.80474167713562</v>
+        <v>50.8047416771356</v>
       </c>
       <c r="I19" t="n">
-        <v>2.402147172652938</v>
+        <v>2.40214717265291</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>312.9257725045263</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9714524162683</v>
+        <v>264.6891945433926</v>
       </c>
       <c r="H20" t="n">
         <v>200.6574911501353</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>15.23748855099066</v>
+        <v>15.23748855099065</v>
       </c>
       <c r="T20" t="n">
         <v>109.967696902435</v>
       </c>
       <c r="U20" t="n">
-        <v>104.7626408488389</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V20" t="n">
         <v>233.8019852329497</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.88170694475212</v>
+        <v>85.88170694475211</v>
       </c>
       <c r="C22" t="n">
-        <v>73.29654786144266</v>
+        <v>73.29654786144265</v>
       </c>
       <c r="D22" t="n">
-        <v>54.66519978102718</v>
+        <v>54.66519978102717</v>
       </c>
       <c r="E22" t="n">
-        <v>52.483689409384</v>
+        <v>52.48368940938398</v>
       </c>
       <c r="F22" t="n">
-        <v>51.47077478574607</v>
+        <v>51.47077478574606</v>
       </c>
       <c r="G22" t="n">
-        <v>72.07553502184305</v>
+        <v>72.07553502184304</v>
       </c>
       <c r="H22" t="n">
-        <v>50.80474167713561</v>
+        <v>50.8047416771356</v>
       </c>
       <c r="I22" t="n">
-        <v>2.402147172652924</v>
+        <v>2.40214717265291</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.7835684262955</v>
+        <v>288.7835684262954</v>
       </c>
       <c r="C23" t="n">
-        <v>271.3226185338225</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D23" t="n">
         <v>260.7327683834978</v>
       </c>
       <c r="E23" t="n">
-        <v>287.9800968350767</v>
+        <v>287.9800968350766</v>
       </c>
       <c r="F23" t="n">
         <v>312.9257725045263</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9714524162683</v>
+        <v>275.2463362593779</v>
       </c>
       <c r="H23" t="n">
-        <v>158.9323749932427</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>15.23748855099075</v>
+        <v>15.23748855099065</v>
       </c>
       <c r="T23" t="n">
-        <v>109.9676969024351</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U23" t="n">
-        <v>157.0448987217169</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V23" t="n">
-        <v>233.8019852329498</v>
+        <v>233.8019852329497</v>
       </c>
       <c r="W23" t="n">
-        <v>255.2906954802279</v>
+        <v>255.2906954802278</v>
       </c>
       <c r="X23" t="n">
         <v>275.7808274412839</v>
       </c>
       <c r="Y23" t="n">
-        <v>292.2876654188685</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.88170694475221</v>
+        <v>85.88170694475211</v>
       </c>
       <c r="C25" t="n">
-        <v>73.29654786144275</v>
+        <v>73.29654786144265</v>
       </c>
       <c r="D25" t="n">
-        <v>54.66519978102727</v>
+        <v>54.66519978102717</v>
       </c>
       <c r="E25" t="n">
-        <v>52.48368940938408</v>
+        <v>52.48368940938398</v>
       </c>
       <c r="F25" t="n">
-        <v>51.47077478574616</v>
+        <v>51.47077478574606</v>
       </c>
       <c r="G25" t="n">
-        <v>72.07553502184314</v>
+        <v>72.07553502184304</v>
       </c>
       <c r="H25" t="n">
-        <v>50.80474167713569</v>
+        <v>50.8047416771356</v>
       </c>
       <c r="I25" t="n">
-        <v>2.402147172653009</v>
+        <v>2.40214717265291</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.81875209425681</v>
+        <v>95.81875209425672</v>
       </c>
       <c r="T25" t="n">
-        <v>125.5986760389841</v>
+        <v>125.598676038984</v>
       </c>
       <c r="U25" t="n">
-        <v>192.2615649684278</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V25" t="n">
-        <v>158.1873700866429</v>
+        <v>158.1873700866428</v>
       </c>
       <c r="W25" t="n">
-        <v>192.5727250994059</v>
+        <v>192.5727250994058</v>
       </c>
       <c r="X25" t="n">
-        <v>131.7593821518521</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.6343801149097</v>
+        <v>124.6343801149096</v>
       </c>
     </row>
     <row r="26">
@@ -2555,13 +2555,13 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>130.6486666776271</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2570,7 +2570,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
         <v>280.7771218515423</v>
@@ -2618,7 +2618,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>205.9667964650859</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2719,16 +2719,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
         <v>49.37728379124554</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2801,10 +2801,10 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>24.47046934079156</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2843,13 +2843,13 @@
         <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
         <v>302.2658320988205</v>
@@ -2858,7 +2858,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>77.60572859284241</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285.8032029865174</v>
+        <v>285.8032029865175</v>
       </c>
       <c r="C32" t="n">
-        <v>268.3422530940443</v>
+        <v>268.3422530940444</v>
       </c>
       <c r="D32" t="n">
-        <v>257.7524029437197</v>
+        <v>257.7524029437199</v>
       </c>
       <c r="E32" t="n">
-        <v>284.9997313952986</v>
+        <v>284.9997313952987</v>
       </c>
       <c r="F32" t="n">
-        <v>309.9454070647482</v>
+        <v>309.9454070647483</v>
       </c>
       <c r="G32" t="n">
-        <v>313.9910869764902</v>
+        <v>313.9910869764904</v>
       </c>
       <c r="H32" t="n">
-        <v>197.6771257103572</v>
+        <v>197.6771257103573</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>12.25712311121264</v>
+        <v>12.25712311121268</v>
       </c>
       <c r="T32" t="n">
         <v>106.987331462657</v>
@@ -3086,13 +3086,13 @@
         <v>154.0645332819388</v>
       </c>
       <c r="V32" t="n">
-        <v>230.8216197931717</v>
+        <v>230.8216197931718</v>
       </c>
       <c r="W32" t="n">
-        <v>252.3103300404498</v>
+        <v>252.3103300404499</v>
       </c>
       <c r="X32" t="n">
-        <v>272.8004620015058</v>
+        <v>272.8004620015059</v>
       </c>
       <c r="Y32" t="n">
         <v>289.3072999790904</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.5968754185112</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.9013415049741</v>
+        <v>82.90134150497417</v>
       </c>
       <c r="C34" t="n">
-        <v>70.31618242166464</v>
+        <v>70.31618242166471</v>
       </c>
       <c r="D34" t="n">
-        <v>51.68483434124916</v>
+        <v>51.68483434124923</v>
       </c>
       <c r="E34" t="n">
-        <v>49.50332396960597</v>
+        <v>49.50332396960604</v>
       </c>
       <c r="F34" t="n">
-        <v>48.49040934596805</v>
+        <v>48.49040934596812</v>
       </c>
       <c r="G34" t="n">
-        <v>69.09516958206503</v>
+        <v>69.0951695820651</v>
       </c>
       <c r="H34" t="n">
-        <v>47.82437623735758</v>
+        <v>47.82437623735765</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>92.8383866544787</v>
+        <v>92.83838665447877</v>
       </c>
       <c r="T34" t="n">
-        <v>122.618310599206</v>
+        <v>122.6183105992061</v>
       </c>
       <c r="U34" t="n">
-        <v>189.2811995286496</v>
+        <v>189.2811995286497</v>
       </c>
       <c r="V34" t="n">
-        <v>155.2070046468648</v>
+        <v>155.2070046468649</v>
       </c>
       <c r="W34" t="n">
-        <v>189.5923596596278</v>
+        <v>189.5923596596279</v>
       </c>
       <c r="X34" t="n">
-        <v>128.7790167120739</v>
+        <v>128.779016712074</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.6540146751316</v>
+        <v>121.6540146751317</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007081</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383242</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052295</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010748</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846429</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092334</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H37" t="n">
-        <v>47.0702946862159</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333702</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383232</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092325</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H40" t="n">
-        <v>47.0702946862158</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333692</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480642</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3806,7 +3806,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383233</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333693</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480642</v>
@@ -3992,7 +3992,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592151</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4119,7 +4119,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383233</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333693</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480642</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1812.767385564343</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C11" t="n">
-        <v>1491.254501572005</v>
+        <v>979.8546354718742</v>
       </c>
       <c r="D11" t="n">
-        <v>1180.438435913328</v>
+        <v>772.4735532892845</v>
       </c>
       <c r="E11" t="n">
-        <v>842.0998162631569</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="F11" t="n">
-        <v>478.5635444216226</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G11" t="n">
-        <v>110.9407272146926</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5042,7 +5042,7 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5054,10 +5054,10 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5072,19 +5072,19 @@
         <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>3104.236671416634</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2820.623417021136</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2820.623417021136</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2494.60729170813</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y11" t="n">
-        <v>2151.917592680392</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,34 +5136,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C13" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611986</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268788</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770418</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G13" t="n">
         <v>215.1557144998336</v>
@@ -5197,25 +5197,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328089</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337117</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N13" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q13" t="n">
         <v>2299.337630107746</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1333.423586391121</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C14" t="n">
-        <v>1333.423586391121</v>
+        <v>1083.289618947962</v>
       </c>
       <c r="D14" t="n">
-        <v>1022.607520732444</v>
+        <v>772.4735532892845</v>
       </c>
       <c r="E14" t="n">
-        <v>684.2689010822731</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822731</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5276,25 +5276,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5306,22 +5306,22 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
         <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2646.598640169957</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2341.279617847916</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>2015.263492534909</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>1672.573793507171</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="15">
@@ -5343,13 +5343,13 @@
         <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5419,31 +5419,31 @@
         <v>535.3126933611982</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998335</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M16" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N16" t="n">
         <v>1550.274078843938</v>
@@ -5464,7 +5464,7 @@
         <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U16" t="n">
         <v>1696.750338179562</v>
@@ -5473,7 +5473,7 @@
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
         <v>1067.008027882917</v>
@@ -5498,43 +5498,43 @@
         <v>1143.534899293931</v>
       </c>
       <c r="E17" t="n">
-        <v>852.6459125918336</v>
+        <v>905.4562740795873</v>
       </c>
       <c r="F17" t="n">
-        <v>536.5592736983726</v>
+        <v>589.3696351861264</v>
       </c>
       <c r="G17" t="n">
-        <v>216.3860894395164</v>
+        <v>269.1964509272696</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5546,13 +5546,13 @@
         <v>3199.135937312782</v>
       </c>
       <c r="U17" t="n">
-        <v>3040.504726482764</v>
+        <v>3040.504726482765</v>
       </c>
       <c r="V17" t="n">
         <v>2804.341105035341</v>
       </c>
       <c r="W17" t="n">
-        <v>2546.471715661373</v>
+        <v>2546.471715661374</v>
       </c>
       <c r="X17" t="n">
         <v>2267.90522329644</v>
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
         <v>458.9189605332749</v>
@@ -5583,16 +5583,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>427.318819168781</v>
+        <v>427.3188191687808</v>
       </c>
       <c r="C19" t="n">
-        <v>353.2819021370207</v>
+        <v>353.2819021370206</v>
       </c>
       <c r="D19" t="n">
-        <v>298.0645286208317</v>
+        <v>298.0645286208315</v>
       </c>
       <c r="E19" t="n">
-        <v>245.0507009345852</v>
+        <v>245.0507009345851</v>
       </c>
       <c r="F19" t="n">
-        <v>193.0600193328215</v>
+        <v>193.0600193328214</v>
       </c>
       <c r="G19" t="n">
         <v>120.256448603687</v>
       </c>
       <c r="H19" t="n">
-        <v>68.93852771769144</v>
+        <v>68.93852771769143</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>171.3456404744362</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K19" t="n">
-        <v>330.9492381258219</v>
+        <v>237.938467621008</v>
       </c>
       <c r="L19" t="n">
-        <v>579.6698525529924</v>
+        <v>486.6590820481786</v>
       </c>
       <c r="M19" t="n">
-        <v>747.1023338521902</v>
+        <v>747.1023338521898</v>
       </c>
       <c r="N19" t="n">
         <v>1011.421941386851</v>
@@ -5695,10 +5695,10 @@
         <v>1540.24437223078</v>
       </c>
       <c r="R19" t="n">
-        <v>1545.212311592247</v>
+        <v>1545.212311592246</v>
       </c>
       <c r="S19" t="n">
-        <v>1448.42569331522</v>
+        <v>1448.425693315219</v>
       </c>
       <c r="T19" t="n">
         <v>1321.558343780892</v>
@@ -5707,16 +5707,16 @@
         <v>1127.354742802682</v>
       </c>
       <c r="V19" t="n">
-        <v>967.5695204929423</v>
+        <v>967.569520492942</v>
       </c>
       <c r="W19" t="n">
-        <v>773.0516163521283</v>
+        <v>773.051616352128</v>
       </c>
       <c r="X19" t="n">
-        <v>639.9613313502576</v>
+        <v>639.9613313502573</v>
       </c>
       <c r="Y19" t="n">
-        <v>514.0680181028741</v>
+        <v>514.0680181028738</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1733.774944536554</v>
+        <v>1680.964583048801</v>
       </c>
       <c r="C20" t="n">
-        <v>1459.711693492289</v>
+        <v>1406.901332004536</v>
       </c>
       <c r="D20" t="n">
-        <v>1196.345260781685</v>
+        <v>1143.534899293932</v>
       </c>
       <c r="E20" t="n">
-        <v>905.4562740795873</v>
+        <v>852.6459125918344</v>
       </c>
       <c r="F20" t="n">
-        <v>589.3696351861263</v>
+        <v>536.5592736983735</v>
       </c>
       <c r="G20" t="n">
         <v>269.1964509272696</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3310.214419032412</v>
+        <v>3310.214419032413</v>
       </c>
       <c r="T20" t="n">
-        <v>3199.135937312781</v>
+        <v>3199.135937312782</v>
       </c>
       <c r="U20" t="n">
-        <v>3093.315087970519</v>
+        <v>3040.504726482765</v>
       </c>
       <c r="V20" t="n">
-        <v>2857.151466523095</v>
+        <v>2804.341105035342</v>
       </c>
       <c r="W20" t="n">
-        <v>2599.282077149127</v>
+        <v>2546.471715661374</v>
       </c>
       <c r="X20" t="n">
-        <v>2320.715584784194</v>
+        <v>2267.905223296441</v>
       </c>
       <c r="Y20" t="n">
-        <v>2025.475518704529</v>
+        <v>1972.665157216776</v>
       </c>
     </row>
     <row r="21">
@@ -5820,16 +5820,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>427.3188191687809</v>
+        <v>427.3188191687808</v>
       </c>
       <c r="C22" t="n">
-        <v>353.2819021370207</v>
+        <v>353.2819021370206</v>
       </c>
       <c r="D22" t="n">
-        <v>298.0645286208316</v>
+        <v>298.0645286208315</v>
       </c>
       <c r="E22" t="n">
         <v>245.0507009345851</v>
@@ -5905,37 +5905,37 @@
         <v>68.93852771769143</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>144.5955527148047</v>
+        <v>139.6276133533377</v>
       </c>
       <c r="K22" t="n">
-        <v>335.9171774872884</v>
+        <v>237.938467621008</v>
       </c>
       <c r="L22" t="n">
-        <v>584.6377919144589</v>
+        <v>486.6590820481786</v>
       </c>
       <c r="M22" t="n">
-        <v>752.0702732136567</v>
+        <v>747.1023338521898</v>
       </c>
       <c r="N22" t="n">
-        <v>1016.389880748318</v>
+        <v>1011.421941386851</v>
       </c>
       <c r="O22" t="n">
-        <v>1247.319000471321</v>
+        <v>1242.351061109854</v>
       </c>
       <c r="P22" t="n">
-        <v>1439.280773728892</v>
+        <v>1434.312834367426</v>
       </c>
       <c r="Q22" t="n">
-        <v>1545.212311592247</v>
+        <v>1540.24437223078</v>
       </c>
       <c r="R22" t="n">
-        <v>1545.212311592247</v>
+        <v>1545.212311592246</v>
       </c>
       <c r="S22" t="n">
-        <v>1448.42569331522</v>
+        <v>1448.425693315219</v>
       </c>
       <c r="T22" t="n">
         <v>1321.558343780892</v>
@@ -5944,16 +5944,16 @@
         <v>1127.354742802682</v>
       </c>
       <c r="V22" t="n">
-        <v>967.5695204929423</v>
+        <v>967.569520492942</v>
       </c>
       <c r="W22" t="n">
-        <v>773.0516163521282</v>
+        <v>773.051616352128</v>
       </c>
       <c r="X22" t="n">
-        <v>639.9613313502575</v>
+        <v>639.9613313502573</v>
       </c>
       <c r="Y22" t="n">
-        <v>514.068018102874</v>
+        <v>514.0680181028738</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1691.845990713183</v>
+        <v>1691.845990713185</v>
       </c>
       <c r="C23" t="n">
-        <v>1417.782739668918</v>
+        <v>1417.782739668919</v>
       </c>
       <c r="D23" t="n">
-        <v>1154.416306958314</v>
+        <v>1154.416306958316</v>
       </c>
       <c r="E23" t="n">
-        <v>863.5273202562162</v>
+        <v>863.5273202562179</v>
       </c>
       <c r="F23" t="n">
-        <v>547.4406813627552</v>
+        <v>547.440681362757</v>
       </c>
       <c r="G23" t="n">
-        <v>227.2674971038981</v>
+        <v>269.4140790805573</v>
       </c>
       <c r="H23" t="n">
         <v>66.72974458547111</v>
@@ -5990,22 +5990,22 @@
         <v>255.6088755444966</v>
       </c>
       <c r="K23" t="n">
-        <v>600.0920287454396</v>
+        <v>589.4282492343431</v>
       </c>
       <c r="L23" t="n">
-        <v>1051.126241993848</v>
+        <v>1040.462462482752</v>
       </c>
       <c r="M23" t="n">
-        <v>1584.658146665773</v>
+        <v>1573.994367154677</v>
       </c>
       <c r="N23" t="n">
-        <v>2131.436963724555</v>
+        <v>2120.773184213459</v>
       </c>
       <c r="O23" t="n">
-        <v>2634.409434603892</v>
+        <v>2623.745655092796</v>
       </c>
       <c r="P23" t="n">
-        <v>3029.183800961071</v>
+        <v>3018.520021449974</v>
       </c>
       <c r="Q23" t="n">
         <v>3277.470162716753</v>
@@ -6020,19 +6020,19 @@
         <v>3210.017344977166</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.386134147148</v>
+        <v>3051.386134147149</v>
       </c>
       <c r="V23" t="n">
-        <v>2815.222512699724</v>
+        <v>2815.222512699725</v>
       </c>
       <c r="W23" t="n">
-        <v>2557.353123325756</v>
+        <v>2557.353123325758</v>
       </c>
       <c r="X23" t="n">
-        <v>2278.786630960823</v>
+        <v>2278.786630960825</v>
       </c>
       <c r="Y23" t="n">
-        <v>1983.546564881158</v>
+        <v>1983.54656488116</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343963</v>
       </c>
       <c r="C24" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532693</v>
       </c>
       <c r="D24" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920181</v>
       </c>
       <c r="E24" t="n">
         <v>459.1365886865626</v>
@@ -6057,10 +6057,10 @@
         <v>312.6020307134476</v>
       </c>
       <c r="G24" t="n">
-        <v>176.2389305460656</v>
+        <v>176.2389305460657</v>
       </c>
       <c r="H24" t="n">
-        <v>85.73703618393316</v>
+        <v>85.73703618393318</v>
       </c>
       <c r="I24" t="n">
         <v>66.72974458547111</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>427.5364473220693</v>
+        <v>427.5364473220685</v>
       </c>
       <c r="C25" t="n">
-        <v>353.4995302903089</v>
+        <v>353.4995302903083</v>
       </c>
       <c r="D25" t="n">
-        <v>298.2821567741197</v>
+        <v>298.2821567741192</v>
       </c>
       <c r="E25" t="n">
-        <v>245.2683290878732</v>
+        <v>245.2683290878728</v>
       </c>
       <c r="F25" t="n">
-        <v>193.2776474861093</v>
+        <v>193.2776474861091</v>
       </c>
       <c r="G25" t="n">
-        <v>120.4740767569749</v>
+        <v>120.4740767569747</v>
       </c>
       <c r="H25" t="n">
-        <v>69.15615587097921</v>
+        <v>69.15615587097911</v>
       </c>
       <c r="I25" t="n">
         <v>66.72974458547111</v>
       </c>
       <c r="J25" t="n">
-        <v>78.55249812291056</v>
+        <v>171.5632686277239</v>
       </c>
       <c r="K25" t="n">
-        <v>238.1560957742981</v>
+        <v>336.1348056405758</v>
       </c>
       <c r="L25" t="n">
-        <v>486.8767102014686</v>
+        <v>491.8446495629331</v>
       </c>
       <c r="M25" t="n">
-        <v>747.3199620054796</v>
+        <v>752.2879013669442</v>
       </c>
       <c r="N25" t="n">
-        <v>1011.63956954014</v>
+        <v>1016.607508901605</v>
       </c>
       <c r="O25" t="n">
-        <v>1242.568689263143</v>
+        <v>1247.536628624608</v>
       </c>
       <c r="P25" t="n">
-        <v>1434.530462520715</v>
+        <v>1439.49840188218</v>
       </c>
       <c r="Q25" t="n">
-        <v>1540.462000384069</v>
+        <v>1545.429939745534</v>
       </c>
       <c r="R25" t="n">
-        <v>1545.429939745535</v>
+        <v>1545.429939745534</v>
       </c>
       <c r="S25" t="n">
-        <v>1448.643321468508</v>
+        <v>1448.643321468507</v>
       </c>
       <c r="T25" t="n">
-        <v>1321.775971934181</v>
+        <v>1321.77597193418</v>
       </c>
       <c r="U25" t="n">
-        <v>1127.572370955971</v>
+        <v>1127.57237095597</v>
       </c>
       <c r="V25" t="n">
-        <v>967.7871486462308</v>
+        <v>967.7871486462298</v>
       </c>
       <c r="W25" t="n">
-        <v>773.2692445054167</v>
+        <v>773.2692445054157</v>
       </c>
       <c r="X25" t="n">
-        <v>640.1789595035459</v>
+        <v>640.178959503545</v>
       </c>
       <c r="Y25" t="n">
-        <v>514.2856462561624</v>
+        <v>514.2856462561615</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1518.329770906687</v>
+        <v>1430.217783284951</v>
       </c>
       <c r="C26" t="n">
-        <v>1386.361420727266</v>
+        <v>1108.704899292613</v>
       </c>
       <c r="D26" t="n">
-        <v>1386.361420727266</v>
+        <v>797.8888336339355</v>
       </c>
       <c r="E26" t="n">
-        <v>1048.022801077095</v>
+        <v>797.8888336339355</v>
       </c>
       <c r="F26" t="n">
-        <v>684.4865292355609</v>
+        <v>434.3525617924013</v>
       </c>
       <c r="G26" t="n">
-        <v>316.8637120286306</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="H26" t="n">
         <v>66.72974458547111</v>
@@ -6224,28 +6224,28 @@
         <v>66.72974458547111</v>
       </c>
       <c r="J26" t="n">
-        <v>266.2726550555929</v>
+        <v>255.6088755444966</v>
       </c>
       <c r="K26" t="n">
-        <v>600.0920287454395</v>
+        <v>589.4282492343431</v>
       </c>
       <c r="L26" t="n">
-        <v>1051.126241993848</v>
+        <v>1040.462462482752</v>
       </c>
       <c r="M26" t="n">
-        <v>1584.658146665773</v>
+        <v>1573.994367154677</v>
       </c>
       <c r="N26" t="n">
-        <v>2131.436963724555</v>
+        <v>2120.773184213459</v>
       </c>
       <c r="O26" t="n">
-        <v>2634.409434603892</v>
+        <v>2623.745655092796</v>
       </c>
       <c r="P26" t="n">
-        <v>3029.183800961071</v>
+        <v>3018.520021449974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3277.470162716753</v>
+        <v>3266.806383205656</v>
       </c>
       <c r="R26" t="n">
         <v>3336.487229273555</v>
@@ -6257,19 +6257,19 @@
         <v>3115.118079081019</v>
       </c>
       <c r="U26" t="n">
-        <v>3115.118079081019</v>
+        <v>2909.037235302929</v>
       </c>
       <c r="V26" t="n">
-        <v>2831.504824685522</v>
+        <v>2625.423980907432</v>
       </c>
       <c r="W26" t="n">
-        <v>2526.185802363481</v>
+        <v>2320.104958585391</v>
       </c>
       <c r="X26" t="n">
-        <v>2200.169677050475</v>
+        <v>2112.057689428738</v>
       </c>
       <c r="Y26" t="n">
-        <v>1857.479978022736</v>
+        <v>1769.367990401</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.7614826343965</v>
+        <v>941.7614826343963</v>
       </c>
       <c r="C27" t="n">
-        <v>767.3084533532696</v>
+        <v>767.3084533532693</v>
       </c>
       <c r="D27" t="n">
-        <v>618.3740436920184</v>
+        <v>618.3740436920181</v>
       </c>
       <c r="E27" t="n">
-        <v>459.1365886865628</v>
+        <v>459.1365886865626</v>
       </c>
       <c r="F27" t="n">
-        <v>312.6020307134479</v>
+        <v>312.6020307134476</v>
       </c>
       <c r="G27" t="n">
-        <v>176.2389305460666</v>
+        <v>176.2389305460657</v>
       </c>
       <c r="H27" t="n">
-        <v>85.73703618393314</v>
+        <v>85.73703618393318</v>
       </c>
       <c r="I27" t="n">
         <v>66.72974458547111</v>
       </c>
       <c r="J27" t="n">
-        <v>160.4070140760887</v>
+        <v>160.4070140760884</v>
       </c>
       <c r="K27" t="n">
-        <v>398.6712130564358</v>
+        <v>398.6712130564356</v>
       </c>
       <c r="L27" t="n">
         <v>765.3693733691009</v>
@@ -6318,25 +6318,25 @@
         <v>1686.168742145871</v>
       </c>
       <c r="O27" t="n">
-        <v>2097.130021563927</v>
+        <v>2097.130021563926</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.62961304003</v>
+        <v>2407.629613040029</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.271170686629</v>
       </c>
       <c r="R27" t="n">
-        <v>2565.126817279145</v>
+        <v>2565.126817279144</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.688930772625</v>
+        <v>2435.688930772624</v>
       </c>
       <c r="T27" t="n">
         <v>2243.04593045048</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.978083584896</v>
+        <v>2014.978083584895</v>
       </c>
       <c r="V27" t="n">
         <v>1779.825975353153</v>
@@ -6348,7 +6348,7 @@
         <v>1317.737118419418</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.976819654465</v>
+        <v>1109.976819654464</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>759.6838779585821</v>
+        <v>759.6838779585818</v>
       </c>
       <c r="C28" t="n">
-        <v>638.1973279787485</v>
+        <v>638.1973279787481</v>
       </c>
       <c r="D28" t="n">
-        <v>535.5303215144861</v>
+        <v>535.5303215144856</v>
       </c>
       <c r="E28" t="n">
-        <v>435.0668608801662</v>
+        <v>435.0668608801659</v>
       </c>
       <c r="F28" t="n">
-        <v>335.6265463303292</v>
+        <v>335.6265463303289</v>
       </c>
       <c r="G28" t="n">
         <v>215.3733426531214</v>
@@ -6382,13 +6382,13 @@
         <v>66.72974458547111</v>
       </c>
       <c r="J28" t="n">
-        <v>158.3577622848133</v>
+        <v>158.3577622848132</v>
       </c>
       <c r="K28" t="n">
-        <v>408.8503304860964</v>
+        <v>408.8503304860961</v>
       </c>
       <c r="L28" t="n">
-        <v>771.9155141869992</v>
+        <v>771.915514186999</v>
       </c>
       <c r="M28" t="n">
         <v>1162.577945038955</v>
@@ -6418,7 +6418,7 @@
         <v>1696.96796633285</v>
       </c>
       <c r="V28" t="n">
-        <v>1489.733111075037</v>
+        <v>1489.733111075036</v>
       </c>
       <c r="W28" t="n">
         <v>1247.765573986149</v>
@@ -6427,7 +6427,7 @@
         <v>1067.225656036205</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.8827098407485</v>
+        <v>893.8827098407482</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2018.690370378281</v>
+        <v>1312.248927128597</v>
       </c>
       <c r="C29" t="n">
-        <v>1697.177486385943</v>
+        <v>990.7360431362583</v>
       </c>
       <c r="D29" t="n">
-        <v>1386.361420727266</v>
+        <v>679.9199774775811</v>
       </c>
       <c r="E29" t="n">
-        <v>1048.022801077095</v>
+        <v>341.58135782741</v>
       </c>
       <c r="F29" t="n">
-        <v>684.4865292355607</v>
+        <v>341.58135782741</v>
       </c>
       <c r="G29" t="n">
         <v>316.8637120286306</v>
       </c>
       <c r="H29" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="I29" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="J29" t="n">
-        <v>255.6088755444965</v>
+        <v>255.6088755444966</v>
       </c>
       <c r="K29" t="n">
-        <v>589.428249234343</v>
+        <v>589.4282492343431</v>
       </c>
       <c r="L29" t="n">
-        <v>1051.126241993848</v>
+        <v>1040.462462482752</v>
       </c>
       <c r="M29" t="n">
-        <v>1584.658146665772</v>
+        <v>1573.994367154677</v>
       </c>
       <c r="N29" t="n">
-        <v>2131.436963724555</v>
+        <v>2120.773184213459</v>
       </c>
       <c r="O29" t="n">
-        <v>2634.409434603891</v>
+        <v>2634.409434603892</v>
       </c>
       <c r="P29" t="n">
-        <v>3029.18380096107</v>
+        <v>3029.183800961071</v>
       </c>
       <c r="Q29" t="n">
-        <v>3277.470162716752</v>
+        <v>3277.470162716753</v>
       </c>
       <c r="R29" t="n">
-        <v>3336.487229273554</v>
+        <v>3336.487229273555</v>
       </c>
       <c r="S29" t="n">
-        <v>3273.646193748722</v>
+        <v>3273.646193748724</v>
       </c>
       <c r="T29" t="n">
-        <v>3273.646193748722</v>
+        <v>3115.118079081019</v>
       </c>
       <c r="U29" t="n">
-        <v>3067.565349970632</v>
+        <v>2909.037235302928</v>
       </c>
       <c r="V29" t="n">
-        <v>3067.565349970632</v>
+        <v>2625.423980907431</v>
       </c>
       <c r="W29" t="n">
-        <v>2762.246327648591</v>
+        <v>2320.10495858539</v>
       </c>
       <c r="X29" t="n">
-        <v>2436.230202335585</v>
+        <v>1994.088833272384</v>
       </c>
       <c r="Y29" t="n">
-        <v>2357.84057749433</v>
+        <v>1651.399134244645</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>85.73703618393318</v>
       </c>
       <c r="I30" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="J30" t="n">
         <v>160.4070140760884</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.6838779585817</v>
+        <v>759.6838779585821</v>
       </c>
       <c r="C31" t="n">
-        <v>638.197327978748</v>
+        <v>638.1973279787485</v>
       </c>
       <c r="D31" t="n">
-        <v>535.5303215144856</v>
+        <v>535.5303215144861</v>
       </c>
       <c r="E31" t="n">
-        <v>435.0668608801658</v>
+        <v>435.0668608801663</v>
       </c>
       <c r="F31" t="n">
-        <v>335.6265463303288</v>
+        <v>335.6265463303292</v>
       </c>
       <c r="G31" t="n">
-        <v>215.373342653121</v>
+        <v>215.3733426531215</v>
       </c>
       <c r="H31" t="n">
-        <v>116.6057888190521</v>
+        <v>116.6057888190525</v>
       </c>
       <c r="I31" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="J31" t="n">
         <v>158.3577622848133</v>
@@ -6625,7 +6625,7 @@
         <v>408.8503304860963</v>
       </c>
       <c r="L31" t="n">
-        <v>771.915514186999</v>
+        <v>771.9155141869994</v>
       </c>
       <c r="M31" t="n">
         <v>1162.577945038955</v>
@@ -6643,13 +6643,13 @@
         <v>2299.555258261033</v>
       </c>
       <c r="R31" t="n">
-        <v>2257.174433966634</v>
+        <v>2257.174433966635</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.938182741534</v>
+        <v>2112.938182741535</v>
       </c>
       <c r="T31" t="n">
-        <v>1938.621200259133</v>
+        <v>1938.621200259134</v>
       </c>
       <c r="U31" t="n">
         <v>1696.96796633285</v>
@@ -6658,13 +6658,13 @@
         <v>1489.733111075037</v>
       </c>
       <c r="W31" t="n">
-        <v>1247.765573986149</v>
+        <v>1247.76557398615</v>
       </c>
       <c r="X31" t="n">
         <v>1067.225656036205</v>
       </c>
       <c r="Y31" t="n">
-        <v>893.882709840748</v>
+        <v>893.8827098407485</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1715.929751842702</v>
+        <v>1715.929751842703</v>
       </c>
       <c r="C32" t="n">
         <v>1444.876970939627</v>
       </c>
       <c r="D32" t="n">
-        <v>1184.521008370213</v>
+        <v>1184.521008370214</v>
       </c>
       <c r="E32" t="n">
-        <v>896.6424918093056</v>
+        <v>896.6424918093062</v>
       </c>
       <c r="F32" t="n">
-        <v>583.5663230570347</v>
+        <v>583.5663230570349</v>
       </c>
       <c r="G32" t="n">
-        <v>266.4036089393673</v>
+        <v>266.4036089393674</v>
       </c>
       <c r="H32" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="I32" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="J32" t="n">
-        <v>255.6088755444965</v>
+        <v>266.2726550555929</v>
       </c>
       <c r="K32" t="n">
-        <v>589.428249234343</v>
+        <v>600.0920287454395</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.462462482752</v>
+        <v>1051.126241993848</v>
       </c>
       <c r="M32" t="n">
-        <v>1584.658146665772</v>
+        <v>1584.658146665773</v>
       </c>
       <c r="N32" t="n">
         <v>2131.436963724555</v>
       </c>
       <c r="O32" t="n">
-        <v>2634.409434603891</v>
+        <v>2634.409434603892</v>
       </c>
       <c r="P32" t="n">
-        <v>3029.18380096107</v>
+        <v>3029.183800961071</v>
       </c>
       <c r="Q32" t="n">
-        <v>3277.470162716752</v>
+        <v>3277.470162716753</v>
       </c>
       <c r="R32" t="n">
-        <v>3336.487229273554</v>
+        <v>3336.487229273555</v>
       </c>
       <c r="S32" t="n">
-        <v>3324.106296837986</v>
+        <v>3324.106296837987</v>
       </c>
       <c r="T32" t="n">
-        <v>3216.038285259544</v>
+        <v>3216.038285259545</v>
       </c>
       <c r="U32" t="n">
-        <v>3060.417544570717</v>
+        <v>3060.417544570719</v>
       </c>
       <c r="V32" t="n">
-        <v>2827.264393264483</v>
+        <v>2827.264393264485</v>
       </c>
       <c r="W32" t="n">
-        <v>2572.405474031706</v>
+        <v>2572.405474031707</v>
       </c>
       <c r="X32" t="n">
-        <v>2296.849451807962</v>
+        <v>2296.849451807963</v>
       </c>
       <c r="Y32" t="n">
-        <v>2004.619855869487</v>
+        <v>2004.619855869488</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.7614826343963</v>
+        <v>941.7614826343965</v>
       </c>
       <c r="C33" t="n">
-        <v>767.3084533532693</v>
+        <v>767.3084533532696</v>
       </c>
       <c r="D33" t="n">
-        <v>618.3740436920181</v>
+        <v>618.3740436920184</v>
       </c>
       <c r="E33" t="n">
-        <v>459.1365886865626</v>
+        <v>459.1365886865628</v>
       </c>
       <c r="F33" t="n">
-        <v>312.6020307134476</v>
+        <v>312.6020307134479</v>
       </c>
       <c r="G33" t="n">
-        <v>176.2389305460657</v>
+        <v>176.2389305460661</v>
       </c>
       <c r="H33" t="n">
-        <v>85.73703618393313</v>
+        <v>85.73703618393353</v>
       </c>
       <c r="I33" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="J33" t="n">
-        <v>160.4070140760884</v>
+        <v>160.4070140760885</v>
       </c>
       <c r="K33" t="n">
-        <v>398.6712130564356</v>
+        <v>398.6712130564357</v>
       </c>
       <c r="L33" t="n">
-        <v>765.3693733691009</v>
+        <v>765.3693733691007</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.645698591417</v>
+        <v>1212.645698591416</v>
       </c>
       <c r="N33" t="n">
         <v>1686.168742145871</v>
@@ -6801,16 +6801,16 @@
         <v>2565.271170686629</v>
       </c>
       <c r="R33" t="n">
-        <v>2565.126817279144</v>
+        <v>2565.126817279145</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.688930772624</v>
+        <v>2435.688930772625</v>
       </c>
       <c r="T33" t="n">
         <v>2243.04593045048</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.978083584895</v>
+        <v>2014.978083584896</v>
       </c>
       <c r="V33" t="n">
         <v>1779.825975353153</v>
@@ -6822,7 +6822,7 @@
         <v>1317.737118419418</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.976819654464</v>
+        <v>1109.976819654465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>407.0472151894211</v>
+        <v>407.0472151894215</v>
       </c>
       <c r="C34" t="n">
-        <v>336.0207682988507</v>
+        <v>336.0207682988511</v>
       </c>
       <c r="D34" t="n">
-        <v>283.8138649238516</v>
+        <v>283.8138649238518</v>
       </c>
       <c r="E34" t="n">
-        <v>233.810507378795</v>
+        <v>233.8105073787953</v>
       </c>
       <c r="F34" t="n">
-        <v>184.8302959182212</v>
+        <v>184.8302959182214</v>
       </c>
       <c r="G34" t="n">
-        <v>115.0371953302767</v>
+        <v>115.0371953302768</v>
       </c>
       <c r="H34" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="I34" t="n">
-        <v>67.30218066992495</v>
+        <v>67.30218066992491</v>
       </c>
       <c r="J34" t="n">
-        <v>175.086266497558</v>
+        <v>79.12493420736439</v>
       </c>
       <c r="K34" t="n">
         <v>273.3971207652284</v>
       </c>
       <c r="L34" t="n">
-        <v>525.0682969777793</v>
+        <v>525.0682969777791</v>
       </c>
       <c r="M34" t="n">
-        <v>788.4621105671706</v>
+        <v>788.4621105671705</v>
       </c>
       <c r="N34" t="n">
-        <v>959.7709475970181</v>
+        <v>1055.732279887211</v>
       </c>
       <c r="O34" t="n">
-        <v>1189.144010644834</v>
+        <v>1289.611961395595</v>
       </c>
       <c r="P34" t="n">
-        <v>1384.056345687786</v>
+        <v>1388.562964148354</v>
       </c>
       <c r="Q34" t="n">
         <v>1492.938445336521</v>
       </c>
       <c r="R34" t="n">
-        <v>1500.856946483367</v>
+        <v>1500.856946483368</v>
       </c>
       <c r="S34" t="n">
-        <v>1407.08079834753</v>
+        <v>1407.080798347531</v>
       </c>
       <c r="T34" t="n">
         <v>1283.223918954393</v>
       </c>
       <c r="U34" t="n">
-        <v>1092.030788117373</v>
+        <v>1092.030788117374</v>
       </c>
       <c r="V34" t="n">
-        <v>935.2560359488225</v>
+        <v>935.2560359488232</v>
       </c>
       <c r="W34" t="n">
-        <v>743.7486019491985</v>
+        <v>743.748601949199</v>
       </c>
       <c r="X34" t="n">
-        <v>613.6687870885178</v>
+        <v>613.6687870885182</v>
       </c>
       <c r="Y34" t="n">
-        <v>490.7859439823242</v>
+        <v>490.7859439823247</v>
       </c>
     </row>
     <row r="35">
@@ -6914,61 +6914,61 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464981</v>
       </c>
       <c r="F35" t="n">
-        <v>581.825297830733</v>
+        <v>581.825297830734</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746128</v>
@@ -6980,7 +6980,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -7005,19 +7005,19 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
         <v>765.1517452158131</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170929</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630293</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245369</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F37" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226755</v>
+        <v>67.83109325226768</v>
       </c>
       <c r="J37" t="n">
-        <v>176.3617198155308</v>
+        <v>79.65384678970713</v>
       </c>
       <c r="K37" t="n">
-        <v>371.380447109025</v>
+        <v>177.9647010573775</v>
       </c>
       <c r="L37" t="n">
-        <v>623.7981640572061</v>
+        <v>430.3824180055587</v>
       </c>
       <c r="M37" t="n">
-        <v>887.9385183822278</v>
+        <v>694.5227723305806</v>
       </c>
       <c r="N37" t="n">
-        <v>1143.477546463672</v>
+        <v>962.5394823862521</v>
       </c>
       <c r="O37" t="n">
-        <v>1378.103768707686</v>
+        <v>1197.165704630266</v>
       </c>
       <c r="P37" t="n">
-        <v>1477.054771460444</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818985</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304675</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673502</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431761</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734893</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="38">
@@ -7157,7 +7157,7 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F38" t="n">
         <v>581.8252978307328</v>
@@ -7166,16 +7166,16 @@
         <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218286</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7184,19 +7184,19 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
         <v>3313.986587710109</v>
@@ -7205,13 +7205,13 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7257,7 +7257,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170922</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630287</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D40" t="n">
         <v>280.5494426245364</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F40" t="n">
         <v>183.0892706919198</v>
@@ -7324,31 +7324,31 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226762</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>176.361719815531</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K40" t="n">
-        <v>274.6725740832014</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L40" t="n">
-        <v>527.0902910313825</v>
+        <v>525.7713142112984</v>
       </c>
       <c r="M40" t="n">
-        <v>791.2306453564042</v>
+        <v>789.9116685363201</v>
       </c>
       <c r="N40" t="n">
-        <v>1059.247355412076</v>
+        <v>1038.104631555369</v>
       </c>
       <c r="O40" t="n">
-        <v>1197.165704630265</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P40" t="n">
-        <v>1371.681856552142</v>
+        <v>1468.389729577966</v>
       </c>
       <c r="Q40" t="n">
         <v>1481.310496936507</v>
@@ -7372,10 +7372,10 @@
         <v>736.6756869673491</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431752</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734885</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464977</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307335</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218286</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7543,58 +7543,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226764</v>
+        <v>67.83109325226765</v>
       </c>
       <c r="J43" t="n">
         <v>176.361719815531</v>
       </c>
       <c r="K43" t="n">
-        <v>371.3804471090253</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L43" t="n">
-        <v>527.0902910313825</v>
+        <v>527.0902910313827</v>
       </c>
       <c r="M43" t="n">
-        <v>791.2306453564042</v>
+        <v>778.7529633821752</v>
       </c>
       <c r="N43" t="n">
-        <v>1059.247355412076</v>
+        <v>950.0618004120226</v>
       </c>
       <c r="O43" t="n">
-        <v>1197.165704630265</v>
+        <v>1184.688022656036</v>
       </c>
       <c r="P43" t="n">
-        <v>1371.681856552142</v>
+        <v>1380.346898434619</v>
       </c>
       <c r="Q43" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R43" t="n">
         <v>1489.975538818984</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T43" t="n">
         <v>1273.865908363023</v>
@@ -7603,16 +7603,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304665</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673493</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431753</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="44">
@@ -7631,52 +7631,52 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307331</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495724</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515855</v>
@@ -7716,22 +7716,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>67.83109325226764</v>
+        <v>67.83109325226765</v>
       </c>
       <c r="J46" t="n">
-        <v>79.65384678970709</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K46" t="n">
-        <v>274.6725740832014</v>
+        <v>350.2377232523189</v>
       </c>
       <c r="L46" t="n">
-        <v>527.0902910313825</v>
+        <v>602.6554402005002</v>
       </c>
       <c r="M46" t="n">
-        <v>770.0879214996983</v>
+        <v>866.795794525522</v>
       </c>
       <c r="N46" t="n">
-        <v>1038.10463155537</v>
+        <v>1038.104631555369</v>
       </c>
       <c r="O46" t="n">
         <v>1272.730853799383</v>
@@ -7831,7 +7831,7 @@
         <v>1489.975538818984</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T46" t="n">
         <v>1273.865908363023</v>
@@ -7840,16 +7840,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304665</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673493</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431753</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
   </sheetData>
@@ -10042,7 +10042,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>171.8177168444614</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.25382330877945</v>
+        <v>15.25382330877944</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>102.4006336413266</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>203.6483030940438</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>102.4006336413269</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>31.73550625764026</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>52.28225787287592</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>52.28225787287566</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>52.28225787287568</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>52.28225787287791</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24218,10 +24218,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>41.72511615689042</v>
       </c>
       <c r="H23" t="n">
-        <v>41.72511615689272</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24443,13 +24443,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>187.6490884747879</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>116.7891675947906</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24689,10 +24689,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>339.4761196940693</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24731,13 +24731,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>261.6570734446186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878146.1097979228</v>
+        <v>878146.109797923</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>879049.4844145597</v>
+        <v>879049.4844145599</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>837412.8654085136</v>
+        <v>837412.8654085137</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>837412.8654085135</v>
+        <v>837412.8654085136</v>
       </c>
     </row>
     <row r="12">
@@ -26317,13 +26317,13 @@
         <v>553011.5286340009</v>
       </c>
       <c r="D2" t="n">
-        <v>553014.1567943087</v>
+        <v>553014.1567943088</v>
       </c>
       <c r="E2" t="n">
-        <v>516058.4316756441</v>
+        <v>516058.4316756439</v>
       </c>
       <c r="F2" t="n">
-        <v>516058.4316756439</v>
+        <v>516058.431675644</v>
       </c>
       <c r="G2" t="n">
         <v>551394.0689428821</v>
@@ -26332,28 +26332,28 @@
         <v>551394.0689428822</v>
       </c>
       <c r="I2" t="n">
-        <v>551961.304167282</v>
+        <v>551961.3041672822</v>
       </c>
       <c r="J2" t="n">
-        <v>516625.6669000443</v>
+        <v>516625.666900044</v>
       </c>
       <c r="K2" t="n">
         <v>516625.666900044</v>
       </c>
       <c r="L2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583918</v>
       </c>
       <c r="M2" t="n">
-        <v>554203.1946583919</v>
+        <v>554203.1946583925</v>
       </c>
       <c r="N2" t="n">
-        <v>554203.1946583923</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="O2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="P2" t="n">
-        <v>554203.1946583918</v>
+        <v>554203.1946583922</v>
       </c>
     </row>
     <row r="3">
@@ -26369,22 +26369,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10420.33926655449</v>
+        <v>10420.33926655595</v>
       </c>
       <c r="E3" t="n">
-        <v>1151572.830875721</v>
+        <v>1151572.830875719</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487409</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>723.3987018801396</v>
+        <v>723.3987018801587</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>77544.51094157061</v>
+        <v>77544.51094157051</v>
       </c>
       <c r="M3" t="n">
         <v>207113.9109540876</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>463375.033574726</v>
+        <v>463375.0335747254</v>
       </c>
       <c r="E4" t="n">
-        <v>62485.16516868469</v>
+        <v>62485.16516868474</v>
       </c>
       <c r="F4" t="n">
-        <v>62485.16516868467</v>
+        <v>62485.16516868475</v>
       </c>
       <c r="G4" t="n">
         <v>91416.0130675504</v>
       </c>
       <c r="H4" t="n">
-        <v>91416.01306755043</v>
+        <v>91416.01306755042</v>
       </c>
       <c r="I4" t="n">
-        <v>91906.68112942853</v>
+        <v>91906.68112942859</v>
       </c>
       <c r="J4" t="n">
-        <v>62975.83323056283</v>
+        <v>62975.83323056286</v>
       </c>
       <c r="K4" t="n">
-        <v>62975.83323056282</v>
+        <v>62975.83323056286</v>
       </c>
       <c r="L4" t="n">
-        <v>93788.48670920231</v>
+        <v>93788.48670920229</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.13782657695</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657703</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33892.84951251484</v>
+        <v>33892.84951251488</v>
       </c>
       <c r="E5" t="n">
         <v>78255.49332178175</v>
@@ -26494,22 +26494,22 @@
         <v>78420.8907182804</v>
       </c>
       <c r="K5" t="n">
-        <v>78420.89071828038</v>
+        <v>78420.8907182804</v>
       </c>
       <c r="L5" t="n">
-        <v>82620.59982082555</v>
+        <v>82620.59982082556</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51767.9687022697</v>
+        <v>51763.55512440158</v>
       </c>
       <c r="C6" t="n">
-        <v>51767.9687022697</v>
+        <v>51763.55512440158</v>
       </c>
       <c r="D6" t="n">
-        <v>45325.93444051337</v>
+        <v>45321.53059657152</v>
       </c>
       <c r="E6" t="n">
-        <v>-776255.0576905429</v>
+        <v>-776396.3345904782</v>
       </c>
       <c r="F6" t="n">
-        <v>375317.7731851775</v>
+        <v>375176.4962852413</v>
       </c>
       <c r="G6" t="n">
-        <v>340193.3004982874</v>
+        <v>340182.8963289707</v>
       </c>
       <c r="H6" t="n">
-        <v>377773.4097931616</v>
+        <v>377763.0056238449</v>
       </c>
       <c r="I6" t="n">
-        <v>376961.1808573044</v>
+        <v>376952.8775591895</v>
       </c>
       <c r="J6" t="n">
-        <v>375228.9429512011</v>
+        <v>375089.7669224662</v>
       </c>
       <c r="K6" t="n">
-        <v>375228.9429512008</v>
+        <v>375089.7669224662</v>
       </c>
       <c r="L6" t="n">
-        <v>300249.5971867932</v>
+        <v>300249.5971867934</v>
       </c>
       <c r="M6" t="n">
-        <v>170796.5485714775</v>
+        <v>170796.5485714779</v>
       </c>
       <c r="N6" t="n">
-        <v>377910.4595255655</v>
+        <v>377910.4595255639</v>
       </c>
       <c r="O6" t="n">
-        <v>377910.4595255642</v>
+        <v>377910.4595255639</v>
       </c>
       <c r="P6" t="n">
-        <v>377910.4595255649</v>
+        <v>377910.4595255653</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859261</v>
+      </c>
+      <c r="F2" t="n">
+        <v>46.97513661859262</v>
+      </c>
+      <c r="G2" t="n">
+        <v>93.95027323718519</v>
+      </c>
+      <c r="H2" t="n">
+        <v>93.95027323718519</v>
+      </c>
+      <c r="I2" t="n">
+        <v>93.95027323718519</v>
+      </c>
+      <c r="J2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="F2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="G2" t="n">
-        <v>93.95027323718516</v>
-      </c>
-      <c r="H2" t="n">
-        <v>93.95027323718517</v>
-      </c>
-      <c r="I2" t="n">
-        <v>93.95027323718509</v>
-      </c>
-      <c r="J2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46.97513661859255</v>
-      </c>
       <c r="L2" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16740883095616</v>
+        <v>12.16740883095787</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26759,13 +26759,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26799,13 +26799,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>834.1218073183888</v>
@@ -26814,22 +26814,22 @@
         <v>834.1218073183888</v>
       </c>
       <c r="K4" t="n">
-        <v>834.1218073183886</v>
+        <v>834.1218073183888</v>
       </c>
       <c r="L4" t="n">
-        <v>834.1218073183886</v>
+        <v>834.1218073183888</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696327</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="M2" t="n">
-        <v>0.754081551141681</v>
+        <v>0.7540815511418941</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16740883095616</v>
+        <v>12.16740883095787</v>
       </c>
       <c r="E3" t="n">
-        <v>1077.609291762342</v>
+        <v>1077.60929176234</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.720351916096206</v>
+        <v>2.720351916095979</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>828.6811034861969</v>
+        <v>828.6811034861964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27871,37 +27871,37 @@
         <v>338.9738594999278</v>
       </c>
       <c r="I8" t="n">
-        <v>208.5901246298815</v>
+        <v>208.5901246298813</v>
       </c>
       <c r="J8" t="n">
-        <v>176.8943724050125</v>
+        <v>176.8943724050119</v>
       </c>
       <c r="K8" t="n">
-        <v>213.8677805682741</v>
+        <v>213.8677805682732</v>
       </c>
       <c r="L8" t="n">
-        <v>228.0473863505255</v>
+        <v>228.0473863505244</v>
       </c>
       <c r="M8" t="n">
-        <v>221.7573265905345</v>
+        <v>221.7573265905333</v>
       </c>
       <c r="N8" t="n">
-        <v>220.6851794710448</v>
+        <v>220.6851794710436</v>
       </c>
       <c r="O8" t="n">
-        <v>221.8567179355892</v>
+        <v>221.856717935588</v>
       </c>
       <c r="P8" t="n">
-        <v>224.1990717385759</v>
+        <v>224.199071738575</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.0235058728659</v>
+        <v>217.0235058728651</v>
       </c>
       <c r="R8" t="n">
-        <v>212.512930799147</v>
+        <v>212.5129307991466</v>
       </c>
       <c r="S8" t="n">
-        <v>207.9054371089171</v>
+        <v>207.9054371089169</v>
       </c>
       <c r="T8" t="n">
         <v>222.8817276258097</v>
@@ -27950,37 +27950,37 @@
         <v>111.9826835360647</v>
       </c>
       <c r="I9" t="n">
-        <v>98.62130302525466</v>
+        <v>98.62130302525453</v>
       </c>
       <c r="J9" t="n">
-        <v>124.36500257584</v>
+        <v>124.3650025758397</v>
       </c>
       <c r="K9" t="n">
-        <v>133.6153305693655</v>
+        <v>133.6153305693649</v>
       </c>
       <c r="L9" t="n">
-        <v>132.8718554951904</v>
+        <v>132.8718554951896</v>
       </c>
       <c r="M9" t="n">
-        <v>135.5027961091472</v>
+        <v>135.5027961091463</v>
       </c>
       <c r="N9" t="n">
-        <v>124.5349651374194</v>
+        <v>124.5349651374185</v>
       </c>
       <c r="O9" t="n">
-        <v>136.369400794889</v>
+        <v>136.3694007948881</v>
       </c>
       <c r="P9" t="n">
-        <v>128.9768164173286</v>
+        <v>128.9768164173279</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.6410168537937</v>
+        <v>136.6410168537932</v>
       </c>
       <c r="R9" t="n">
-        <v>144.0545809506525</v>
+        <v>144.0545809506523</v>
       </c>
       <c r="S9" t="n">
-        <v>171.1970486849784</v>
+        <v>171.1970486849783</v>
       </c>
       <c r="T9" t="n">
         <v>200.0592395559947</v>
@@ -28029,37 +28029,37 @@
         <v>162.0320950347072</v>
       </c>
       <c r="I10" t="n">
-        <v>154.7906423303271</v>
+        <v>154.790642330327</v>
       </c>
       <c r="J10" t="n">
-        <v>125.4441765463085</v>
+        <v>125.4441765463083</v>
       </c>
       <c r="K10" t="n">
-        <v>126.4640862875908</v>
+        <v>126.4640862875904</v>
       </c>
       <c r="L10" t="n">
-        <v>131.6226139202308</v>
+        <v>131.6226139202303</v>
       </c>
       <c r="M10" t="n">
-        <v>135.4863965628153</v>
+        <v>135.4863965628148</v>
       </c>
       <c r="N10" t="n">
-        <v>124.3279380250449</v>
+        <v>124.3279380250444</v>
       </c>
       <c r="O10" t="n">
-        <v>135.3552454599788</v>
+        <v>135.3552454599783</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0743121296879</v>
+        <v>135.0743121296876</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.6677228959715</v>
+        <v>149.6677228959712</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3068339332693</v>
+        <v>176.3068339332692</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6342222545306</v>
+        <v>223.6342222545305</v>
       </c>
       <c r="T10" t="n">
         <v>227.8518405405676</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="12">
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="15">
@@ -28415,7 +28415,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="C17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="D17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="E17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="F17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="G17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="H17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="T17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="U17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="V17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="W17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="X17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
     </row>
     <row r="18">
@@ -28649,7 +28649,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="C19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="D19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="E19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="F19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="G19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="H19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="I19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="J19" t="n">
-        <v>93.95027323718516</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>61.91186200375284</v>
+        <v>61.9118620037523</v>
       </c>
       <c r="L19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="N19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="O19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="P19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="R19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="S19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="T19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="U19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="V19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="W19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="X19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718519</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="C20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="D20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="E20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="F20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="G20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="H20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="T20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="U20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="V20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="W20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="X20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="C22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="D22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="E22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="F22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="G22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="H22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="I22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="J22" t="n">
-        <v>66.92998257089072</v>
+        <v>61.91186200375229</v>
       </c>
       <c r="K22" t="n">
-        <v>93.95027323718517</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="N22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="O22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="P22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="S22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="T22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="U22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="V22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="W22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="X22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718519</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="C23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="D23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="E23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="F23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="G23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="H23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29062,7 +29062,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>10.77149445565311</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29080,31 +29080,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>10.77149445565297</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="T23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="U23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="V23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="W23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="X23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="C25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="D25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="E25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="F25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="G25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="H25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="I25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="K25" t="n">
-        <v>61.91186200375469</v>
+        <v>66.92998257089042</v>
       </c>
       <c r="L25" t="n">
-        <v>93.95027323718509</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="N25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="O25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="P25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="R25" t="n">
-        <v>93.95027323718509</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="T25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="U25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="V25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="W25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="X25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718519</v>
       </c>
     </row>
     <row r="26">
@@ -29272,31 +29272,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
-        <v>10.77149445565277</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -29320,28 +29320,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>10.77149445565298</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29539,7 +29539,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>10.77149445565226</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -29548,7 +29548,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>10.77149445565294</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="C32" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="D32" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="E32" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="F32" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="G32" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="H32" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>10.77149445565277</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29779,7 +29779,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>10.77149445565237</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="T32" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="U32" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="V32" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="W32" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="X32" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="Y32" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="C34" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="D34" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="E34" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="F34" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="G34" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="H34" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="I34" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="J34" t="n">
-        <v>96.9306386769632</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="L34" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="M34" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="O34" t="n">
-        <v>92.3784988178042</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="P34" t="n">
-        <v>96.9306386769632</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.9306386769632</v>
+        <v>92.37849881780491</v>
       </c>
       <c r="R34" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="S34" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="T34" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="U34" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="V34" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="W34" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="X34" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.9306386769632</v>
+        <v>96.93063867696313</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N37" t="n">
-        <v>85.08100106221895</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>76.3284335041584</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="39">
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810498</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810498</v>
+        <v>77.66073332242607</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P40" t="n">
-        <v>76.32843350415956</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810496</v>
+        <v>85.08100106221684</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P43" t="n">
-        <v>76.32843350415979</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810496</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="45">
@@ -30839,7 +30839,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810496</v>
+        <v>76.32843350415908</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="M46" t="n">
-        <v>76.32843350415951</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0489142063556026</v>
+        <v>0.04891420635560949</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5009426158393153</v>
+        <v>0.5009426158393858</v>
       </c>
       <c r="I8" t="n">
-        <v>1.885764940524371</v>
+        <v>1.885764940524637</v>
       </c>
       <c r="J8" t="n">
-        <v>4.151532121673831</v>
+        <v>4.151532121674415</v>
       </c>
       <c r="K8" t="n">
-        <v>6.22207047670649</v>
+        <v>6.222070476707366</v>
       </c>
       <c r="L8" t="n">
-        <v>7.719028619461764</v>
+        <v>7.719028619462851</v>
       </c>
       <c r="M8" t="n">
-        <v>8.588906636738212</v>
+        <v>8.588906636739422</v>
       </c>
       <c r="N8" t="n">
-        <v>8.727884125546069</v>
+        <v>8.727884125547297</v>
       </c>
       <c r="O8" t="n">
-        <v>8.241493486097545</v>
+        <v>8.241493486098705</v>
       </c>
       <c r="P8" t="n">
-        <v>7.033924016693605</v>
+        <v>7.033924016694594</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.282184001583585</v>
+        <v>5.282184001584328</v>
       </c>
       <c r="R8" t="n">
-        <v>3.072607014985125</v>
+        <v>3.072607014985557</v>
       </c>
       <c r="S8" t="n">
-        <v>1.114632477328295</v>
+        <v>1.114632477328452</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2141219383216505</v>
+        <v>0.2141219383216806</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003913136508448207</v>
+        <v>0.003913136508448758</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02617140767413211</v>
+        <v>0.0261714076741358</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2527607004317496</v>
+        <v>0.2527607004317852</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9010769747453382</v>
+        <v>0.901076974745465</v>
       </c>
       <c r="J9" t="n">
-        <v>2.472624090826666</v>
+        <v>2.472624090827015</v>
       </c>
       <c r="K9" t="n">
-        <v>4.226108404993518</v>
+        <v>4.226108404994113</v>
       </c>
       <c r="L9" t="n">
-        <v>5.682524284683817</v>
+        <v>5.682524284684617</v>
       </c>
       <c r="M9" t="n">
-        <v>6.631237812871105</v>
+        <v>6.631237812872038</v>
       </c>
       <c r="N9" t="n">
-        <v>6.806746945913861</v>
+        <v>6.806746945914818</v>
       </c>
       <c r="O9" t="n">
-        <v>6.226843649555459</v>
+        <v>6.226843649556336</v>
       </c>
       <c r="P9" t="n">
-        <v>4.997590997001597</v>
+        <v>4.9975909970023</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.340757232227812</v>
+        <v>3.340757232228282</v>
       </c>
       <c r="R9" t="n">
-        <v>1.624923013311466</v>
+        <v>1.624923013311695</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4861224188594273</v>
+        <v>0.4861224188594957</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1054891388268746</v>
+        <v>0.1054891388268894</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001721803136456061</v>
+        <v>0.001721803136456303</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02194122903942913</v>
+        <v>0.02194122903943222</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1950774727323792</v>
+        <v>0.1950774727324066</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6598325969311963</v>
+        <v>0.6598325969312892</v>
       </c>
       <c r="J10" t="n">
-        <v>1.55124489308764</v>
+        <v>1.551244893087858</v>
       </c>
       <c r="K10" t="n">
-        <v>2.549171882944584</v>
+        <v>2.549171882944943</v>
       </c>
       <c r="L10" t="n">
-        <v>3.262062361007492</v>
+        <v>3.262062361007951</v>
       </c>
       <c r="M10" t="n">
-        <v>3.439387384789786</v>
+        <v>3.43938738479027</v>
       </c>
       <c r="N10" t="n">
-        <v>3.357606440188281</v>
+        <v>3.357606440188753</v>
       </c>
       <c r="O10" t="n">
-        <v>3.101292991864039</v>
+        <v>3.101292991864475</v>
       </c>
       <c r="P10" t="n">
-        <v>2.653691919459682</v>
+        <v>2.653691919460056</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83727873347438</v>
+        <v>1.837278733474638</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9865574439001497</v>
+        <v>0.9865574439002885</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3823757824416876</v>
+        <v>0.3823757824417414</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09374888771392445</v>
+        <v>0.09374888771393765</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00119679431124159</v>
+        <v>0.001196794311241759</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32944,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33096,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33418,40 +33418,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33570,43 +33570,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33737,10 +33737,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33977,7 +33977,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34366,10 +34366,10 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953992</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003805</v>
       </c>
       <c r="L44" t="n">
         <v>691.3565293623194</v>
@@ -34451,7 +34451,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
         <v>366.7325087887907</v>
@@ -35577,7 +35577,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
@@ -35814,16 +35814,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P16" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>105.892448527528</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K19" t="n">
-        <v>161.2157552034199</v>
+        <v>161.2157552034193</v>
       </c>
       <c r="L19" t="n">
         <v>251.2329438658289</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>263.0739917212234</v>
       </c>
       <c r="N19" t="n">
         <v>266.9895025602635</v>
@@ -36063,7 +36063,7 @@
         <v>107.0015533973274</v>
       </c>
       <c r="R19" t="n">
-        <v>5.018120567137828</v>
+        <v>5.018120567137856</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.8721578612336</v>
+        <v>73.85403729409518</v>
       </c>
       <c r="K22" t="n">
-        <v>193.2541664368522</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L22" t="n">
         <v>251.2329438658289</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840382</v>
+        <v>263.0739917212234</v>
       </c>
       <c r="N22" t="n">
         <v>266.9895025602635</v>
@@ -36300,7 +36300,7 @@
         <v>107.0015533973274</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.018120567137856</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>347.9627810110536</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36376,7 +36376,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>261.5657992593725</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36513,31 +36513,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034289</v>
+        <v>105.8924485275281</v>
       </c>
       <c r="K25" t="n">
-        <v>161.2157552034217</v>
+        <v>166.2338757705575</v>
       </c>
       <c r="L25" t="n">
-        <v>251.2329438658288</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M25" t="n">
-        <v>263.0739917212233</v>
+        <v>263.0739917212234</v>
       </c>
       <c r="N25" t="n">
-        <v>266.9895025602634</v>
+        <v>266.9895025602635</v>
       </c>
       <c r="O25" t="n">
-        <v>233.2617370939424</v>
+        <v>233.2617370939425</v>
       </c>
       <c r="P25" t="n">
-        <v>193.9007810682544</v>
+        <v>193.9007810682545</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.0015533973273</v>
+        <v>107.0015533973274</v>
       </c>
       <c r="R25" t="n">
-        <v>5.018120567137757</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>201.5584954243654</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222484</v>
+        <v>70.38469299787776</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36762,10 +36762,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861323</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
@@ -36835,7 +36835,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>466.3616088479844</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36844,7 +36844,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>518.8244953438721</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>201.5584954243654</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M32" t="n">
-        <v>549.6926102858791</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37221,34 +37221,34 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5782182671251022</v>
+        <v>0.5782182671250453</v>
       </c>
       <c r="J34" t="n">
-        <v>108.8728139673061</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K34" t="n">
-        <v>99.30389319966704</v>
+        <v>196.2345318766302</v>
       </c>
       <c r="L34" t="n">
         <v>254.2133093056069</v>
       </c>
       <c r="M34" t="n">
-        <v>266.0543571610014</v>
+        <v>266.0543571610013</v>
       </c>
       <c r="N34" t="n">
-        <v>173.0392293230783</v>
+        <v>269.9698680000415</v>
       </c>
       <c r="O34" t="n">
-        <v>231.6899626745615</v>
+        <v>236.2421025337205</v>
       </c>
       <c r="P34" t="n">
-        <v>196.8811465080325</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.9819188371054</v>
+        <v>105.4297789779471</v>
       </c>
       <c r="R34" t="n">
-        <v>7.998486006915869</v>
+        <v>7.998486006915812</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37458,34 +37458,34 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266783</v>
+        <v>1.332299818266925</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K37" t="n">
-        <v>196.9886134277719</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N37" t="n">
-        <v>258.1202303852972</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O37" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P37" t="n">
-        <v>99.95050783106933</v>
+        <v>176.2789413352277</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.752567558057692</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37695,34 +37695,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266883</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>109.6268955184479</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567487</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M40" t="n">
         <v>266.8084387121432</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511833</v>
+        <v>250.6999626455044</v>
       </c>
       <c r="O40" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P40" t="n">
-        <v>176.2789413352289</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882472</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057649</v>
+        <v>8.752567558057663</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.332299818266868</v>
+        <v>1.332299818266897</v>
       </c>
       <c r="J43" t="n">
         <v>109.6268955184479</v>
       </c>
       <c r="K43" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286437</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121431</v>
+        <v>254.204719546255</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P43" t="n">
-        <v>176.2789413352291</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q43" t="n">
         <v>110.7360003882472</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057635</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865553999</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38099,7 +38099,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
@@ -38169,22 +38169,22 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.332299818266868</v>
+        <v>1.332299818266897</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K46" t="n">
-        <v>196.988613427772</v>
+        <v>175.6323267038261</v>
       </c>
       <c r="L46" t="n">
         <v>254.9673908567487</v>
       </c>
       <c r="M46" t="n">
-        <v>245.4521519881977</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O46" t="n">
         <v>236.9961840848623</v>
@@ -38196,7 +38196,7 @@
         <v>13.0512801601422</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057635</v>
+        <v>8.752567558057663</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
